--- a/ELAND_01/VT_ELAND_ALL_V01.xlsx
+++ b/ELAND_01/VT_ELAND_ALL_V01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Maciek\Uczelnia\praca\przedmioty\Integrated Energy Resource Planning\2025_2026\winter\ELAND_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emilia\Downloads\ELAND_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D1B0D5-4329-446D-B495-DE0BE30CF656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Power Plants" sheetId="8" r:id="rId7"/>
     <sheet name="Demand" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,13 +42,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{883F3F3E-52AC-4182-99FF-FF97F19B73F8}">
+    <comment ref="H6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1" shapeId="0" xr:uid="{AA7AB276-025A-44A9-9D78-5D089C2FB040}">
+    <comment ref="I6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{AC852C4D-62E1-46B7-93E3-1A53D5349DED}">
+    <comment ref="J6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="1" shapeId="0" xr:uid="{FF9B4920-14A3-4070-A1B2-78FA5C2510AD}">
+    <comment ref="K6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,13 +240,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{54990CEA-F4F0-45D9-9B03-80195AEAE8E9}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{69DE8243-941B-4A16-98FE-3695051F9DBF}">
+    <comment ref="J6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{A681C4EF-DB98-4ADB-A493-4D0D67EDAB80}">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -435,12 +434,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{DC8F15DD-018B-4855-85AF-04500F13F7B0}">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -479,12 +478,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{6E49767A-F5CB-4932-B130-15226B45B1B0}">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,7 +522,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1033,12 +1032,15 @@
   </si>
   <si>
     <t>Set</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
@@ -1913,6 +1915,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1922,15 +1933,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1951,9 +1953,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
-    <cellStyle name="Normal 39 2 2" xfId="3" xr:uid="{3239FB62-2CA0-4815-BEFB-A7203B672581}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{137A5599-82BA-4049-805F-5468140AB07A}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 39 2 2" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="2"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3068,7 +3070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4117804-2E85-47EE-BA5B-568C5E98E06A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3323,7 +3325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA14610B-F5EC-4107-A8FB-0F277B7332F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3344,7 +3346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495D73C4-1CB8-4502-8C15-49A7C0384D59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3359,7 +3361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3571,65 +3573,65 @@
       <c r="L11" s="32"/>
     </row>
     <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C15" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="111"/>
+      <c r="E15" s="108"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="108"/>
+      <c r="E16" s="111"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="107"/>
+      <c r="E17" s="110"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="108"/>
+      <c r="E18" s="111"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="107" t="s">
+      <c r="D19" s="110" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="107"/>
+      <c r="E19" s="110"/>
     </row>
     <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D20" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="106"/>
+      <c r="E20" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3647,7 +3649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3905,11 +3907,11 @@
       <c r="L14" s="32"/>
     </row>
     <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
     </row>
     <row r="18" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="24" t="s">
@@ -4021,7 +4023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4178,11 +4180,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
-  <dimension ref="B2:P22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4493,6 +4495,11 @@
       </c>
     </row>
     <row r="22" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4501,10 +4508,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4607,6 +4614,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4801,15 +4817,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4822,6 +4829,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4840,14 +4855,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>

--- a/ELAND_01/VT_ELAND_ALL_V01.xlsx
+++ b/ELAND_01/VT_ELAND_ALL_V01.xlsx
@@ -522,7 +522,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="177">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1035,6 +1035,24 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>IMP_BIOMASS</t>
+  </si>
+  <si>
+    <t>Import of Biomass</t>
+  </si>
+  <si>
+    <t>BIOMASS</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>EX_PP_BIOMASS</t>
+  </si>
+  <si>
+    <t>Power Plant - Biomass</t>
   </si>
 </sst>
 </file>
@@ -3365,7 +3383,7 @@
   <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3561,11 +3579,19 @@
     </row>
     <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
+      <c r="C11" s="61" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="E11" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
@@ -3653,7 +3679,7 @@
   <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3830,81 +3856,105 @@
     </row>
     <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
-      <c r="C11" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="46"/>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
       <c r="L11" s="34"/>
     </row>
     <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="29"/>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="29"/>
-      <c r="C13" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="34"/>
     </row>
     <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="C14" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
       <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
     </row>
     <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="106" t="s">
@@ -4027,7 +4077,7 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4165,9 +4215,17 @@
     </row>
     <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="C11" s="31" t="str">
+        <f>FI_Process!E11</f>
+        <v>IMP_BIOMASS</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="31" t="str">
+        <f>FI_Comm!E11</f>
+        <v>BIOMASS</v>
+      </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="32"/>
@@ -4183,8 +4241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4361,11 +4419,11 @@
     <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
-        <f>FI_Process!E12</f>
+        <f>FI_Process!E13</f>
         <v>EX_PP_OIL</v>
       </c>
       <c r="D9" s="11" t="str">
-        <f>FI_Process!F12</f>
+        <f>FI_Process!F13</f>
         <v>Power Plant - Fuel Oil</v>
       </c>
       <c r="E9" s="11" t="str">
@@ -4407,11 +4465,11 @@
     <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="29"/>
       <c r="C10" s="74" t="str">
-        <f>FI_Process!E13</f>
+        <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
       <c r="D10" s="75" t="str">
-        <f>FI_Process!F13</f>
+        <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
       <c r="E10" s="75" t="str">
@@ -4452,16 +4510,39 @@
     </row>
     <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
+      <c r="C11" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="75" t="str">
+        <f>FI_Process!F15</f>
+        <v>Power Plant - Biomass</v>
+      </c>
+      <c r="E11" s="75" t="str">
+        <f>FI_Comm!E11</f>
+        <v>BIOMASS</v>
+      </c>
+      <c r="F11" s="75" t="str">
+        <f>FI_Comm!E10</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="G11" s="75">
+        <v>2</v>
+      </c>
+      <c r="H11" s="75">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I11" s="75">
+        <v>0.6</v>
+      </c>
+      <c r="J11" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="75">
+        <v>1</v>
+      </c>
+      <c r="L11" s="76">
+        <v>1</v>
+      </c>
       <c r="M11" s="32"/>
       <c r="O11" s="99">
         <f>SUM(O9:O10)</f>

--- a/ELAND_01/VT_ELAND_ALL_V01.xlsx
+++ b/ELAND_01/VT_ELAND_ALL_V01.xlsx
@@ -4077,7 +4077,7 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4215,19 +4215,21 @@
     </row>
     <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="30"/>
-      <c r="C11" s="31" t="str">
+      <c r="C11" s="74" t="str">
         <f>FI_Process!E11</f>
         <v>IMP_BIOMASS</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="31" t="str">
+      <c r="E11" s="75" t="str">
         <f>FI_Comm!E11</f>
         <v>BIOMASS</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76">
+        <v>25</v>
+      </c>
       <c r="H11" s="32"/>
     </row>
   </sheetData>
@@ -4242,7 +4244,7 @@
   <dimension ref="B2:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4526,16 +4528,16 @@
         <v>ELC_HV</v>
       </c>
       <c r="G11" s="75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="75">
         <v>31.536000000000001</v>
       </c>
       <c r="I11" s="75">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J11" s="75">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="K11" s="75">
         <v>1</v>
@@ -4695,15 +4697,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4898,6 +4891,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4910,14 +4912,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4936,6 +4930,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>

--- a/ELAND_01/VT_ELAND_ALL_V01.xlsx
+++ b/ELAND_01/VT_ELAND_ALL_V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -4243,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4546,9 +4546,15 @@
         <v>1</v>
       </c>
       <c r="M11" s="32"/>
-      <c r="O11" s="99">
-        <f>SUM(O9:O10)</f>
-        <v>132.45120000000003</v>
+      <c r="O11" s="98">
+        <f>G11*H11*J11</f>
+        <v>66.2256</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O12" s="99">
+        <f>SUM(O9:O11)</f>
+        <v>198.67680000000001</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
@@ -4594,7 +4600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4697,6 +4703,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4891,15 +4906,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4912,6 +4918,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4930,14 +4944,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>

--- a/ELAND_01/VT_ELAND_ALL_V01.xlsx
+++ b/ELAND_01/VT_ELAND_ALL_V01.xlsx
@@ -522,7 +522,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="183">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1053,6 +1053,24 @@
   </si>
   <si>
     <t>Power Plant - Biomass</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>GRID</t>
+  </si>
+  <si>
+    <t>Low Voltage Electricity</t>
+  </si>
+  <si>
+    <t>Electricity Grid</t>
+  </si>
+  <si>
+    <t>ELC_LV</t>
+  </si>
+  <si>
+    <t>Grid</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1762,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1969,6 +1987,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 10" xfId="1"/>
@@ -3383,7 +3402,7 @@
   <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3582,21 +3601,40 @@
       <c r="C11" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
       <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="106" t="s">
@@ -3676,10 +3714,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3956,108 +3994,130 @@
       <c r="J15" s="52"/>
       <c r="K15" s="53"/>
     </row>
-    <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="106" t="s">
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="118" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+    </row>
+    <row r="18" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-    </row>
-    <row r="18" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+    </row>
+    <row r="19" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D19" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="114"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="104" t="s">
+      <c r="E19" s="114"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="117" t="s">
+      <c r="D20" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="117"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="101" t="s">
+      <c r="E20" s="117"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D21" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="115"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="100" t="s">
+      <c r="E21" s="115"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D22" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="116"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="101" t="s">
+      <c r="E22" s="116"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D23" s="115" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="115"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="100" t="s">
+      <c r="E23" s="115"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D24" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="116"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="101" t="s">
+      <c r="E24" s="116"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="115" t="s">
+      <c r="D25" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="115"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="100" t="s">
+      <c r="E25" s="115"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D26" s="116" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="116"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="101" t="s">
+      <c r="E26" s="116"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="115" t="s">
+      <c r="D27" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="115"/>
-    </row>
-    <row r="27" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="102" t="s">
+      <c r="E27" s="115"/>
+    </row>
+    <row r="28" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D28" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E28" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
@@ -4065,7 +4125,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4244,7 +4303,7 @@
   <dimension ref="B2:P24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4551,7 +4610,40 @@
         <v>66.2256</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="74" t="str">
+        <f>FI_Process!E16</f>
+        <v>GRID</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="75" t="str">
+        <f>FI_Comm!E10</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="F12" s="75" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="G12" s="75">
+        <v>0</v>
+      </c>
+      <c r="H12" s="75">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I12" s="75">
+        <v>0.9</v>
+      </c>
+      <c r="J12" s="75">
+        <v>1</v>
+      </c>
+      <c r="K12" s="75">
+        <v>0</v>
+      </c>
+      <c r="L12" s="76">
+        <v>0</v>
+      </c>
       <c r="O12" s="99">
         <f>SUM(O9:O11)</f>
         <v>198.67680000000001</v>
@@ -4601,7 +4693,7 @@
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4703,15 +4795,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4906,6 +4989,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4918,14 +5010,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4944,6 +5028,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>

--- a/ELAND_01/VT_ELAND_ALL_V01.xlsx
+++ b/ELAND_01/VT_ELAND_ALL_V01.xlsx
@@ -1948,6 +1948,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1987,7 +1988,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 10" xfId="1"/>
@@ -3130,16 +3130,16 @@
       <c r="B2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F3" s="9"/>
@@ -3637,65 +3637,65 @@
       <c r="K12" s="64"/>
     </row>
     <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C15" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="108"/>
+      <c r="E15" s="109"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="111"/>
+      <c r="E16" s="112"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="110"/>
+      <c r="E17" s="111"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="111"/>
+      <c r="E18" s="112"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="110"/>
+      <c r="E19" s="111"/>
     </row>
     <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="109" t="s">
+      <c r="D20" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="109"/>
+      <c r="E20" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3995,14 +3995,14 @@
       <c r="K15" s="53"/>
     </row>
     <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118" t="s">
+      <c r="D16" s="105"/>
+      <c r="E16" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="F16" s="118" t="s">
+      <c r="F16" s="105" t="s">
         <v>179</v>
       </c>
       <c r="G16" s="52" t="s">
@@ -4011,106 +4011,106 @@
       <c r="H16" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
     </row>
     <row r="18" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="106" t="s">
+      <c r="C18" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
     </row>
     <row r="19" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="114"/>
+      <c r="E19" s="115"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="117" t="s">
+      <c r="D20" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="117"/>
+      <c r="E20" s="118"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="115" t="s">
+      <c r="D21" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="115"/>
+      <c r="E21" s="116"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="116" t="s">
+      <c r="D22" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="116"/>
+      <c r="E22" s="117"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="115" t="s">
+      <c r="D23" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="115"/>
+      <c r="E23" s="116"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="116" t="s">
+      <c r="D24" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="116"/>
+      <c r="E24" s="117"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="115"/>
+      <c r="E25" s="116"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="116" t="s">
+      <c r="D26" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="116"/>
+      <c r="E26" s="117"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="115" t="s">
+      <c r="D27" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="115"/>
+      <c r="E27" s="116"/>
     </row>
     <row r="28" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="112" t="s">
+      <c r="D28" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="112"/>
+      <c r="E28" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4778,7 +4778,7 @@
         <v>123</v>
       </c>
       <c r="E9" s="83">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F9" s="34"/>
     </row>
@@ -4795,6 +4795,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4989,15 +4998,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5010,6 +5010,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5028,14 +5036,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>

--- a/ELAND_01/VT_ELAND_ALL_V01.xlsx
+++ b/ELAND_01/VT_ELAND_ALL_V01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emilia\Downloads\ELAND_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\Przedmioty\Integrated Energy Resource Planning\ELAND_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68786D10-0D8E-4297-9CFB-F87FC250B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -19,9 +20,10 @@
     <sheet name="FI_Process" sheetId="2" r:id="rId5"/>
     <sheet name="Supply" sheetId="3" r:id="rId6"/>
     <sheet name="Power Plants" sheetId="8" r:id="rId7"/>
-    <sheet name="Demand" sheetId="9" r:id="rId8"/>
+    <sheet name="GRID" sheetId="13" r:id="rId8"/>
+    <sheet name="Demand" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,13 +44,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{883F3F3E-52AC-4182-99FF-FF97F19B73F8}">
       <text>
         <r>
           <rPr>
@@ -76,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1" shapeId="0">
+    <comment ref="I6" authorId="1" shapeId="0" xr:uid="{AA7AB276-025A-44A9-9D78-5D089C2FB040}">
       <text>
         <r>
           <rPr>
@@ -149,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1" shapeId="0">
+    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{AC852C4D-62E1-46B7-93E3-1A53D5349DED}">
       <text>
         <r>
           <rPr>
@@ -202,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="1" shapeId="0">
+    <comment ref="K6" authorId="1" shapeId="0" xr:uid="{FF9B4920-14A3-4070-A1B2-78FA5C2510AD}">
       <text>
         <r>
           <rPr>
@@ -240,13 +242,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{54990CEA-F4F0-45D9-9B03-80195AEAE8E9}">
       <text>
         <r>
           <rPr>
@@ -339,7 +341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1" shapeId="0">
+    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{69DE8243-941B-4A16-98FE-3695051F9DBF}">
       <text>
         <r>
           <rPr>
@@ -366,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0">
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{A681C4EF-DB98-4ADB-A493-4D0D67EDAB80}">
       <text>
         <r>
           <rPr>
@@ -434,12 +436,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{DC8F15DD-018B-4855-85AF-04500F13F7B0}">
       <text>
         <r>
           <rPr>
@@ -478,12 +480,100 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{6E49767A-F5CB-4932-B130-15226B45B1B0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">With this symbol </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>\I:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this column is ignored from VEDA.
+It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{9E78AFC4-2BAE-403F-95E2-523753FAAFF4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">With this symbol </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>\I:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>, this column is ignored from VEDA.
+It is just useful for your information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{A71BDD28-0CE9-4974-B2FE-EBDD5AD48B4E}">
       <text>
         <r>
           <rPr>
@@ -522,7 +612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="186">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -581,12 +671,6 @@
     <t>ELC</t>
   </si>
   <si>
-    <t>SEASON</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
     <t>~FI_Process</t>
   </si>
   <si>
@@ -1034,49 +1118,64 @@
     <t>Set</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>IMP_BIOMASS</t>
-  </si>
-  <si>
-    <t>Import of Biomass</t>
-  </si>
-  <si>
-    <t>BIOMASS</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>EX_PP_BIOMASS</t>
-  </si>
-  <si>
-    <t>Power Plant - Biomass</t>
+    <t>ELC_LV</t>
+  </si>
+  <si>
+    <t>ELC_FIN</t>
+  </si>
+  <si>
+    <t>Low Voltage</t>
+  </si>
+  <si>
+    <t>Final demand</t>
+  </si>
+  <si>
+    <t>EX_PP_WIND</t>
+  </si>
+  <si>
+    <t>Power Plant - Wind Tuebine</t>
+  </si>
+  <si>
+    <t>MIN_WIND_ON</t>
+  </si>
+  <si>
+    <t>Supply Wind Onshore</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>\I:</t>
+  </si>
+  <si>
+    <t>Demand process</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>DMD_FIN_ELC</t>
+  </si>
+  <si>
+    <t>Final electricity demand</t>
   </si>
   <si>
     <t>PRE</t>
   </si>
   <si>
-    <t>GRID</t>
-  </si>
-  <si>
-    <t>Low Voltage Electricity</t>
-  </si>
-  <si>
-    <t>Electricity Grid</t>
-  </si>
-  <si>
-    <t>ELC_LV</t>
-  </si>
-  <si>
-    <t>Grid</t>
+    <t>EX_ELC_GRID</t>
+  </si>
+  <si>
+    <t>Existing Grid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
@@ -1225,7 +1324,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1274,8 +1373,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1755,6 +1860,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1762,7 +1878,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1893,9 +2009,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1948,7 +2062,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1988,12 +2101,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 39 2 2" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="2"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
+    <cellStyle name="Normal 39 2 2" xfId="3" xr:uid="{3239FB62-2CA0-4815-BEFB-A7203B672581}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{137A5599-82BA-4049-805F-5468140AB07A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2107,7 +2228,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1989584" cy="350352"/>
@@ -2318,7 +2439,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>87922</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3601692" cy="350352"/>
@@ -3107,250 +3228,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4117804-2E85-47EE-BA5B-568C5E98E06A}">
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="F2" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>76</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L5" s="7">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L6" s="7">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>84</v>
       </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" s="8">
         <v>1000</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L9" s="8">
         <v>1000000</v>
       </c>
       <c r="M9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I12" s="8">
         <v>1000</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L12" s="8">
         <v>1000000</v>
       </c>
       <c r="M12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14">
         <v>1000</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3362,18 +3483,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA14610B-F5EC-4107-A8FB-0F277B7332F9}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3383,14 +3504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495D73C4-1CB8-4502-8C15-49A7C0384D59}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3398,30 +3519,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3434,8 +3555,8 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -3448,7 +3569,7 @@
       <c r="K4" s="36"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54" t="s">
         <v>1</v>
@@ -3463,13 +3584,13 @@
       <c r="K5" s="56"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>2</v>
@@ -3494,13 +3615,13 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="59" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>10</v>
@@ -3521,34 +3642,32 @@
         <v>14</v>
       </c>
       <c r="K7" s="60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="47" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="48"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="49" t="s">
         <v>15</v>
@@ -3558,154 +3677,186 @@
         <v>16</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="23"/>
-      <c r="I9" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="50"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="63" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64" t="s">
-        <v>18</v>
-      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="50"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
       <c r="C11" s="61" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="63" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="61" t="s">
+      <c r="K11" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="17" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
-    </row>
-    <row r="14" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="107" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="103" t="s">
+      <c r="D18" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="106"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="109"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="E20" s="108"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="109"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="112"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="101" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="111" t="s">
+      <c r="E21" s="109"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="111"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="100" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="112" t="s">
+      <c r="D22" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="108"/>
+    </row>
+    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="112"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="111" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="111"/>
-    </row>
-    <row r="20" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="102" t="s">
+      <c r="D23" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="110"/>
+      <c r="E23" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3713,33 +3864,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
+  <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -3752,10 +3903,10 @@
       <c r="K4" s="37"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -3767,72 +3918,72 @@
       <c r="K5" s="40"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="G6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="H6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="I6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="J6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="K6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>30</v>
-      </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="G7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="H7" s="25" t="s">
         <v>34</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>36</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7" s="44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -3844,74 +3995,79 @@
       <c r="K8" s="46"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="48"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
       <c r="C10" s="49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>19</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="50"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29"/>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C11" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
+      <c r="F11" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="50"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="29"/>
       <c r="C12" s="45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -3923,208 +4079,276 @@
       <c r="K12" s="46"/>
       <c r="L12" s="34"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="29"/>
       <c r="C13" s="47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>20</v>
-      </c>
+      <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="48"/>
       <c r="L13" s="34"/>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="30"/>
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
       <c r="C14" s="51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>20</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="I14" s="52"/>
       <c r="J14" s="52"/>
       <c r="K14" s="53"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-    </row>
-    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="105" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105" t="s">
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+      <c r="C17" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="G16" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-    </row>
-    <row r="18" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-    </row>
-    <row r="19" spans="3:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="114" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="115"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="104" t="s">
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+      <c r="C19" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="23" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+    </row>
+    <row r="24" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="112"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="102" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="115" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="115"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="113"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="114" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="114"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="113"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="118" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="118"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="101" t="s">
+      <c r="D29" s="114" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="114"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="113" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="113"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="114"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="116" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="116"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="117"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="101" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="116" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="116"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="117" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="117"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" s="116" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="116"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="100" t="s">
+      <c r="E32" s="113"/>
+    </row>
+    <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D33" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="E26" s="117"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="116" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="116"/>
-    </row>
-    <row r="28" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="102" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="113" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="113"/>
+      <c r="E33" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -4132,107 +4356,107 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
       <c r="E5" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="56"/>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="2:8" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7" s="34"/>
     </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="70" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
         <f>FI_Process!E9</f>
@@ -4252,44 +4476,54 @@
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
+      <c r="C10" s="116" t="str">
         <f>FI_Process!E10</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="D10" s="75" t="str">
+      <c r="D10" s="117" t="str">
         <f>FI_Process!F10</f>
         <v>Supply Natural Gas</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="E10" s="117" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76">
+      <c r="F10" s="117"/>
+      <c r="G10" s="118">
         <v>20</v>
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="74" t="str">
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="119" t="str">
         <f>FI_Process!E11</f>
-        <v>IMP_BIOMASS</v>
-      </c>
-      <c r="D11" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="75" t="str">
-        <f>FI_Comm!E11</f>
-        <v>BIOMASS</v>
-      </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76">
-        <v>25</v>
-      </c>
-      <c r="H11" s="32"/>
+        <v>MIN_WIND_ON</v>
+      </c>
+      <c r="D11" s="120" t="str">
+        <f>FI_Process!F11</f>
+        <v>Supply Wind Onshore</v>
+      </c>
+      <c r="E11" s="120" t="str">
+        <f>FI_Comm!E10</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="F11" s="120"/>
+      <c r="G11" s="121">
+        <v>1E-3</v>
+      </c>
+      <c r="H11" s="34"/>
+    </row>
+    <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -4299,49 +4533,49 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
+  <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C5" sqref="C5:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" customWidth="1"/>
-    <col min="15" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="15" max="16" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
@@ -4350,13 +4584,13 @@
       <c r="L4" s="37"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
       <c r="F5" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
@@ -4366,118 +4600,118 @@
       <c r="L5" s="56"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="L6" s="67" t="s">
         <v>109</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L6" s="67" t="s">
-        <v>111</v>
       </c>
       <c r="M6" s="34"/>
       <c r="O6" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="39.6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="L7" s="69" t="s">
         <v>115</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="69" t="s">
-        <v>117</v>
       </c>
       <c r="M7" s="34"/>
       <c r="O7" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
-      <c r="C8" s="80" t="s">
-        <v>52</v>
+      <c r="C8" s="78" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="81" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="L8" s="79" t="s">
+        <v>75</v>
       </c>
       <c r="M8" s="34"/>
-      <c r="O8" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="P8" s="86" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
         <f>FI_Process!E13</f>
@@ -4492,7 +4726,7 @@
         <v>FUEL_OIL</v>
       </c>
       <c r="F9" s="11" t="str">
-        <f>FI_Comm!E10</f>
+        <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
       <c r="G9" s="11">
@@ -4514,173 +4748,144 @@
         <v>1</v>
       </c>
       <c r="M9" s="34"/>
-      <c r="O9" s="85">
+      <c r="O9" s="83">
         <f>G9*H9*J9</f>
         <v>100.91520000000001</v>
       </c>
-      <c r="P9" s="85">
+      <c r="P9" s="83">
         <f>O9/I9</f>
         <v>252.28800000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
-      <c r="C10" s="74" t="str">
+      <c r="C10" s="116" t="str">
         <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="75" t="str">
+      <c r="D10" s="117" t="str">
         <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="E10" s="117" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="75" t="str">
-        <f>FI_Comm!E10</f>
+      <c r="F10" s="117" t="str">
+        <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="117">
         <v>2</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="117">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="117">
         <v>0.6</v>
       </c>
-      <c r="J10" s="75">
+      <c r="J10" s="117">
         <v>0.5</v>
       </c>
-      <c r="K10" s="75">
+      <c r="K10" s="117">
         <v>1</v>
       </c>
-      <c r="L10" s="76">
+      <c r="L10" s="118">
         <v>1</v>
       </c>
       <c r="M10" s="34"/>
-      <c r="O10" s="98">
+      <c r="O10" s="96">
         <f>G10*H10*J10</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P10" s="98">
+      <c r="P10" s="96">
         <f>O10/I10</f>
         <v>52.56</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="30"/>
-      <c r="C11" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="75" t="str">
+    <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="119" t="str">
+        <f>FI_Process!E15</f>
+        <v>EX_PP_WIND</v>
+      </c>
+      <c r="D11" s="120" t="str">
         <f>FI_Process!F15</f>
-        <v>Power Plant - Biomass</v>
-      </c>
-      <c r="E11" s="75" t="str">
+        <v>Power Plant - Wind Tuebine</v>
+      </c>
+      <c r="E11" s="120" t="str">
+        <f>FI_Comm!E10</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="F11" s="120" t="str">
         <f>FI_Comm!E11</f>
-        <v>BIOMASS</v>
-      </c>
-      <c r="F11" s="75" t="str">
-        <f>FI_Comm!E10</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G11" s="75">
-        <v>3</v>
-      </c>
-      <c r="H11" s="75">
+      <c r="G11" s="120">
+        <v>1</v>
+      </c>
+      <c r="H11" s="120">
         <v>31.536000000000001</v>
       </c>
-      <c r="I11" s="75">
-        <v>0.3</v>
-      </c>
-      <c r="J11" s="75">
-        <v>0.7</v>
-      </c>
-      <c r="K11" s="75">
+      <c r="I11" s="120">
         <v>1</v>
       </c>
-      <c r="L11" s="76">
+      <c r="J11" s="120">
+        <v>0.33</v>
+      </c>
+      <c r="K11" s="120"/>
+      <c r="L11" s="121">
         <v>1</v>
       </c>
-      <c r="M11" s="32"/>
-      <c r="O11" s="98">
-        <f>G11*H11*J11</f>
-        <v>66.2256</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="74" t="str">
-        <f>FI_Process!E16</f>
-        <v>GRID</v>
-      </c>
-      <c r="D12" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="75" t="str">
-        <f>FI_Comm!E10</f>
-        <v>ELC_HV</v>
-      </c>
-      <c r="F12" s="75" t="str">
-        <f>FI_Comm!E12</f>
-        <v>ELC_LV</v>
-      </c>
-      <c r="G12" s="75">
-        <v>0</v>
-      </c>
-      <c r="H12" s="75">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="I12" s="75">
-        <v>0.9</v>
-      </c>
-      <c r="J12" s="75">
-        <v>1</v>
-      </c>
-      <c r="K12" s="75">
-        <v>0</v>
-      </c>
-      <c r="L12" s="76">
-        <v>0</v>
-      </c>
-      <c r="O12" s="99">
-        <f>SUM(O9:O11)</f>
-        <v>198.67680000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C16" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
+      <c r="M11" s="34"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
+      <c r="O12" s="97">
+        <f>SUM(O9:O10)</f>
+        <v>132.45120000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>170</v>
-      </c>
-    </row>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4689,112 +4894,415 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF049C56-8571-476E-80B4-2A2AA175E0B0}">
+  <dimension ref="B1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="str">
+        <f>FI_Process!E17</f>
+        <v>EX_ELC_GRID</v>
+      </c>
+      <c r="C6" t="str">
+        <f>FI_Process!F17</f>
+        <v>Existing Grid</v>
+      </c>
+      <c r="D6" t="str">
+        <f>FI_Comm!E11</f>
+        <v>ELC_HV</v>
+      </c>
+      <c r="E6" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
+  <dimension ref="B1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="29"/>
-      <c r="C5" s="90" t="s">
-        <v>43</v>
+      <c r="C5" s="88" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="55"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="84"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="89"/>
+      <c r="F5" s="82"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="85">
+        <v>2025</v>
+      </c>
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="87">
-        <v>2025</v>
-      </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="2:6" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="92" t="s">
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29"/>
+      <c r="C9" s="80" t="str">
+        <f>FI_Comm!E13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="29"/>
-      <c r="C9" s="82" t="str">
-        <f>FI_Comm!E10</f>
-        <v>ELC_HV</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="83">
-        <v>110</v>
+      <c r="E9" s="81">
+        <f>100/GRID!H6</f>
+        <v>113.63636363636364</v>
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
       <c r="F10" s="32"/>
     </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="123" t="str">
+        <f>FI_Process!E19</f>
+        <v>DMD_FIN_ELC</v>
+      </c>
+      <c r="D17" s="123" t="str">
+        <f>FI_Process!F19</f>
+        <v>Final electricity demand</v>
+      </c>
+      <c r="E17" s="123" t="str">
+        <f>FI_Comm!E12</f>
+        <v>ELC_LV</v>
+      </c>
+      <c r="F17" s="123" t="str">
+        <f>FI_Comm!E13</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123">
+        <v>1</v>
+      </c>
+      <c r="I17" s="123">
+        <v>1</v>
+      </c>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4803,7 +5311,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4998,18 +5506,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5017,7 +5525,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5034,15 +5542,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ELAND_01/VT_ELAND_ALL_V01.xlsx
+++ b/ELAND_01/VT_ELAND_ALL_V01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\Przedmioty\Integrated Energy Resource Planning\ELAND_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emilia\Documents\IERP\ELAND-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68786D10-0D8E-4297-9CFB-F87FC250B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="GRID" sheetId="13" r:id="rId8"/>
     <sheet name="Demand" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,13 +43,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{883F3F3E-52AC-4182-99FF-FF97F19B73F8}">
+    <comment ref="H6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="1" shapeId="0" xr:uid="{AA7AB276-025A-44A9-9D78-5D089C2FB040}">
+    <comment ref="I6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{AC852C4D-62E1-46B7-93E3-1A53D5349DED}">
+    <comment ref="J6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="1" shapeId="0" xr:uid="{FF9B4920-14A3-4070-A1B2-78FA5C2510AD}">
+    <comment ref="K6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,13 +241,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{54990CEA-F4F0-45D9-9B03-80195AEAE8E9}">
+    <comment ref="I6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{69DE8243-941B-4A16-98FE-3695051F9DBF}">
+    <comment ref="J6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -368,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{A681C4EF-DB98-4ADB-A493-4D0D67EDAB80}">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,12 +435,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{DC8F15DD-018B-4855-85AF-04500F13F7B0}">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -480,12 +479,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{6E49767A-F5CB-4932-B130-15226B45B1B0}">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -524,12 +523,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{9E78AFC4-2BAE-403F-95E2-523753FAAFF4}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -568,12 +567,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{A71BDD28-0CE9-4974-B2FE-EBDD5AD48B4E}">
+    <comment ref="D14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -612,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="188">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1170,12 +1169,18 @@
   </si>
   <si>
     <t>Existing Grid</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
   </numFmts>
@@ -2062,6 +2067,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2101,20 +2114,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{8AA69BA5-D233-441B-9028-16280C6B1AA6}"/>
-    <cellStyle name="Normal 39 2 2" xfId="3" xr:uid="{3239FB62-2CA0-4815-BEFB-A7203B672581}"/>
-    <cellStyle name="Normal 4" xfId="2" xr:uid="{137A5599-82BA-4049-805F-5468140AB07A}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 39 2 2" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3228,44 +3233,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4117804-2E85-47EE-BA5B-568C5E98E06A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>70</v>
       </c>
@@ -3273,7 +3278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -3308,7 +3313,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F6">
         <v>1</v>
       </c>
@@ -3334,7 +3339,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>82</v>
       </c>
@@ -3342,7 +3347,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>84</v>
       </c>
@@ -3374,7 +3379,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>85</v>
       </c>
@@ -3382,7 +3387,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>87</v>
       </c>
@@ -3414,7 +3419,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>93</v>
       </c>
@@ -3437,7 +3442,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>96</v>
       </c>
@@ -3469,7 +3474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>100</v>
       </c>
@@ -3483,16 +3488,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA14610B-F5EC-4107-A8FB-0F277B7332F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>133</v>
       </c>
@@ -3504,14 +3509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495D73C4-1CB8-4502-8C15-49A7C0384D59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3519,30 +3524,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3555,8 +3560,8 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -3569,7 +3574,7 @@
       <c r="K4" s="36"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29"/>
       <c r="C5" s="54" t="s">
         <v>1</v>
@@ -3584,7 +3589,7 @@
       <c r="K5" s="56"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29"/>
       <c r="C6" s="57" t="s">
         <v>135</v>
@@ -3615,7 +3620,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="29"/>
       <c r="C7" s="59" t="s">
         <v>9</v>
@@ -3646,7 +3651,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29"/>
       <c r="C8" s="47" t="s">
         <v>15</v>
@@ -3662,12 +3667,14 @@
         <v>56</v>
       </c>
       <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
+      <c r="I8" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="J8" s="21"/>
       <c r="K8" s="48"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="49" t="s">
         <v>15</v>
@@ -3683,12 +3690,14 @@
         <v>56</v>
       </c>
       <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="I9" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="J9" s="23"/>
       <c r="K9" s="50"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="C10" s="49" t="s">
         <v>15</v>
@@ -3704,12 +3713,14 @@
         <v>56</v>
       </c>
       <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="I10" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="J10" s="23"/>
       <c r="K10" s="50"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="29"/>
       <c r="C11" s="61" t="s">
         <v>15</v>
@@ -3725,14 +3736,16 @@
         <v>56</v>
       </c>
       <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
+      <c r="I11" s="63" t="s">
+        <v>187</v>
+      </c>
       <c r="J11" s="63"/>
       <c r="K11" s="64" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="29"/>
       <c r="C12" s="13" t="s">
         <v>15</v>
@@ -3748,12 +3761,14 @@
         <v>56</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="I12" s="63" t="s">
+        <v>187</v>
+      </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="34"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="29"/>
       <c r="C13" s="13" t="s">
         <v>138</v>
@@ -3769,12 +3784,14 @@
         <v>56</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="63" t="s">
+        <v>187</v>
+      </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="34"/>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -3787,66 +3804,66 @@
       <c r="K14" s="31"/>
       <c r="L14" s="32"/>
     </row>
-    <row r="17" spans="3:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="104" t="s">
+    <row r="17" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="106"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="114"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="109"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="117"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="108"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="116"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="109" t="s">
+      <c r="D21" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="109"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="117"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="108" t="s">
+      <c r="D22" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="108"/>
-    </row>
-    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="116"/>
+    </row>
+    <row r="23" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="115" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="107"/>
+      <c r="E23" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3864,33 +3881,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D37998-97B2-47BE-BFC8-510092DE769F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -3903,7 +3920,7 @@
       <c r="K4" s="37"/>
       <c r="L4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29"/>
       <c r="C5" s="38" t="s">
         <v>19</v>
@@ -3918,7 +3935,7 @@
       <c r="K5" s="40"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29"/>
       <c r="C6" s="41" t="s">
         <v>20</v>
@@ -3949,7 +3966,7 @@
       </c>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="43" t="s">
         <v>29</v>
@@ -3980,7 +3997,7 @@
       </c>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29"/>
       <c r="C8" s="45" t="s">
         <v>65</v>
@@ -3995,7 +4012,7 @@
       <c r="K8" s="46"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="47" t="s">
         <v>59</v>
@@ -4013,12 +4030,14 @@
       <c r="H9" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="J9" s="21"/>
       <c r="K9" s="48"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
       <c r="C10" s="49" t="s">
         <v>38</v>
@@ -4036,12 +4055,14 @@
       <c r="H10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="J10" s="23"/>
       <c r="K10" s="50"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
       <c r="C11" s="49" t="s">
         <v>38</v>
@@ -4059,12 +4080,14 @@
       <c r="H11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="J11" s="23"/>
       <c r="K11" s="50"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="29"/>
       <c r="C12" s="45" t="s">
         <v>66</v>
@@ -4079,7 +4102,7 @@
       <c r="K12" s="46"/>
       <c r="L12" s="34"/>
     </row>
-    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="29"/>
       <c r="C13" s="47" t="s">
         <v>39</v>
@@ -4097,12 +4120,14 @@
       <c r="H13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="J13" s="21"/>
       <c r="K13" s="48"/>
       <c r="L13" s="34"/>
     </row>
-    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="29"/>
       <c r="C14" s="51" t="s">
         <v>39</v>
@@ -4120,12 +4145,14 @@
       <c r="H14" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="52"/>
+      <c r="I14" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="J14" s="52"/>
       <c r="K14" s="53"/>
       <c r="L14" s="34"/>
     </row>
-    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="29"/>
       <c r="C15" s="74" t="s">
         <v>39</v>
@@ -4143,12 +4170,14 @@
       <c r="H15" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="29"/>
       <c r="C16" s="74" t="s">
         <v>178</v>
@@ -4163,7 +4192,7 @@
       <c r="K16" s="74"/>
       <c r="L16" s="34"/>
     </row>
-    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="29"/>
       <c r="C17" s="74" t="s">
         <v>183</v>
@@ -4181,12 +4210,14 @@
       <c r="H17" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
       <c r="L17" s="34"/>
     </row>
-    <row r="18" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="29"/>
       <c r="C18" s="74" t="s">
         <v>178</v>
@@ -4203,7 +4234,7 @@
       <c r="K18" s="74"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="29"/>
       <c r="C19" s="74" t="s">
         <v>180</v>
@@ -4221,12 +4252,14 @@
       <c r="H19" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="30"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -4239,102 +4272,102 @@
       <c r="K20" s="31"/>
       <c r="L20" s="32"/>
     </row>
-    <row r="23" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="104" t="s">
+    <row r="23" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-    </row>
-    <row r="24" spans="2:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+    </row>
+    <row r="24" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="111" t="s">
+      <c r="D24" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="112"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E24" s="120"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C25" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="115"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E25" s="123"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C26" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="113"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E26" s="121"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C27" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="114"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E27" s="122"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C28" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="113" t="s">
+      <c r="D28" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="113"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E28" s="121"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C29" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="114" t="s">
+      <c r="D29" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="114"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E29" s="122"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C30" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="113"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="121"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C31" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="114"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E31" s="122"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C32" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="D32" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="113"/>
-    </row>
-    <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="121"/>
+    </row>
+    <row r="33" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C33" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="110"/>
+      <c r="E33" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4356,34 +4389,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1952914-7966-4DC5-AB8B-D64E02D1F6E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="75"/>
       <c r="D4" s="76"/>
@@ -4392,7 +4425,7 @@
       <c r="G4" s="37"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -4403,7 +4436,7 @@
       <c r="G5" s="56"/>
       <c r="H5" s="34"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
         <v>22</v>
@@ -4422,7 +4455,7 @@
       </c>
       <c r="H6" s="34"/>
     </row>
-    <row r="7" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
         <v>43</v>
@@ -4441,7 +4474,7 @@
       </c>
       <c r="H7" s="34"/>
     </row>
-    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29"/>
       <c r="C8" s="70" t="s">
         <v>50</v>
@@ -4456,7 +4489,7 @@
       </c>
       <c r="H8" s="34"/>
     </row>
-    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
         <f>FI_Process!E9</f>
@@ -4476,47 +4509,47 @@
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
-      <c r="C10" s="116" t="str">
+      <c r="C10" s="103" t="str">
         <f>FI_Process!E10</f>
         <v>MIN_NAT_GAS</v>
       </c>
-      <c r="D10" s="117" t="str">
+      <c r="D10" s="104" t="str">
         <f>FI_Process!F10</f>
         <v>Supply Natural Gas</v>
       </c>
-      <c r="E10" s="117" t="str">
+      <c r="E10" s="104" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="118">
+      <c r="F10" s="104"/>
+      <c r="G10" s="105">
         <v>20</v>
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="29"/>
-      <c r="C11" s="119" t="str">
+      <c r="C11" s="106" t="str">
         <f>FI_Process!E11</f>
         <v>MIN_WIND_ON</v>
       </c>
-      <c r="D11" s="120" t="str">
+      <c r="D11" s="107" t="str">
         <f>FI_Process!F11</f>
         <v>Supply Wind Onshore</v>
       </c>
-      <c r="E11" s="120" t="str">
+      <c r="E11" s="107" t="str">
         <f>FI_Comm!E10</f>
         <v>WIND_ON</v>
       </c>
-      <c r="F11" s="120"/>
-      <c r="G11" s="121">
+      <c r="F11" s="107"/>
+      <c r="G11" s="108">
         <v>1E-3</v>
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -4533,33 +4566,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FE246-6927-4E10-AB96-C02BF4616A2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" customWidth="1"/>
-    <col min="15" max="16" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" customWidth="1"/>
+    <col min="15" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>116</v>
       </c>
@@ -4567,10 +4600,10 @@
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="75"/>
       <c r="D4" s="76"/>
@@ -4584,7 +4617,7 @@
       <c r="L4" s="37"/>
       <c r="M4" s="33"/>
     </row>
-    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29"/>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -4600,7 +4633,7 @@
       <c r="L5" s="56"/>
       <c r="M5" s="34"/>
     </row>
-    <row r="6" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29"/>
       <c r="C6" s="66" t="s">
         <v>22</v>
@@ -4637,7 +4670,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="68" t="s">
         <v>43</v>
@@ -4677,7 +4710,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29"/>
       <c r="C8" s="78" t="s">
         <v>50</v>
@@ -4711,7 +4744,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="72" t="str">
         <f>FI_Process!E13</f>
@@ -4757,40 +4790,40 @@
         <v>252.28800000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="29"/>
-      <c r="C10" s="116" t="str">
+      <c r="C10" s="103" t="str">
         <f>FI_Process!E14</f>
         <v>EX_PP_NAT_GAS</v>
       </c>
-      <c r="D10" s="117" t="str">
+      <c r="D10" s="104" t="str">
         <f>FI_Process!F14</f>
         <v>Power Plant - Natural Gas</v>
       </c>
-      <c r="E10" s="117" t="str">
+      <c r="E10" s="104" t="str">
         <f>FI_Comm!E9</f>
         <v>NAT_GAS</v>
       </c>
-      <c r="F10" s="117" t="str">
+      <c r="F10" s="104" t="str">
         <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G10" s="117">
+      <c r="G10" s="104">
         <v>2</v>
       </c>
-      <c r="H10" s="117">
+      <c r="H10" s="104">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="117">
+      <c r="I10" s="104">
         <v>0.6</v>
       </c>
-      <c r="J10" s="117">
+      <c r="J10" s="104">
         <v>0.5</v>
       </c>
-      <c r="K10" s="117">
+      <c r="K10" s="104">
         <v>1</v>
       </c>
-      <c r="L10" s="118">
+      <c r="L10" s="105">
         <v>1</v>
       </c>
       <c r="M10" s="34"/>
@@ -4803,45 +4836,45 @@
         <v>52.56</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="29"/>
-      <c r="C11" s="119" t="str">
+      <c r="C11" s="106" t="str">
         <f>FI_Process!E15</f>
         <v>EX_PP_WIND</v>
       </c>
-      <c r="D11" s="120" t="str">
+      <c r="D11" s="107" t="str">
         <f>FI_Process!F15</f>
         <v>Power Plant - Wind Tuebine</v>
       </c>
-      <c r="E11" s="120" t="str">
+      <c r="E11" s="107" t="str">
         <f>FI_Comm!E10</f>
         <v>WIND_ON</v>
       </c>
-      <c r="F11" s="120" t="str">
+      <c r="F11" s="107" t="str">
         <f>FI_Comm!E11</f>
         <v>ELC_HV</v>
       </c>
-      <c r="G11" s="120">
+      <c r="G11" s="107">
         <v>1</v>
       </c>
-      <c r="H11" s="120">
+      <c r="H11" s="107">
         <v>31.536000000000001</v>
       </c>
-      <c r="I11" s="120">
+      <c r="I11" s="107">
         <v>1</v>
       </c>
-      <c r="J11" s="120">
+      <c r="J11" s="107">
         <v>0.33</v>
       </c>
-      <c r="K11" s="120"/>
-      <c r="L11" s="121">
+      <c r="K11" s="107"/>
+      <c r="L11" s="108">
         <v>1</v>
       </c>
       <c r="M11" s="34"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
-    </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -4859,33 +4892,33 @@
         <v>132.45120000000003</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="3:3" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4894,23 +4927,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF049C56-8571-476E-80B4-2A2AA175E0B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="54"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -4924,7 +4957,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="2:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="66" t="s">
         <v>22</v>
       </c>
@@ -4956,7 +4989,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B4" s="68" t="s">
         <v>43</v>
       </c>
@@ -4988,7 +5021,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="78" t="s">
         <v>50</v>
       </c>
@@ -5014,7 +5047,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>FI_Process!E17</f>
         <v>EX_ELC_GRID</v>
@@ -5045,46 +5078,46 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8DE65A-CDBE-4BD0-8253-87A191EAA74A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="75"/>
       <c r="D4" s="76"/>
       <c r="E4" s="77"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29"/>
       <c r="C5" s="88" t="s">
         <v>41</v>
@@ -5093,7 +5126,7 @@
       <c r="E5" s="89"/>
       <c r="F5" s="82"/>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29"/>
       <c r="C6" s="86" t="s">
         <v>2</v>
@@ -5106,7 +5139,7 @@
       </c>
       <c r="F6" s="34"/>
     </row>
-    <row r="7" spans="2:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="90" t="s">
         <v>119</v>
@@ -5119,7 +5152,7 @@
       </c>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29"/>
       <c r="C8" s="93" t="s">
         <v>50</v>
@@ -5130,7 +5163,7 @@
       </c>
       <c r="F8" s="34"/>
     </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="29"/>
       <c r="C9" s="80" t="str">
         <f>FI_Comm!E13</f>
@@ -5145,15 +5178,15 @@
       </c>
       <c r="F9" s="34"/>
     </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
       <c r="F10" s="32"/>
     </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="54"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
@@ -5167,7 +5200,7 @@
       <c r="K13" s="55"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="66" t="s">
         <v>22</v>
       </c>
@@ -5199,7 +5232,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
       <c r="C15" s="68" t="s">
         <v>43</v>
       </c>
@@ -5231,7 +5264,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" s="78" t="s">
         <v>50</v>
       </c>
@@ -5257,33 +5290,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="123" t="str">
+    <row r="17" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="110" t="str">
         <f>FI_Process!E19</f>
         <v>DMD_FIN_ELC</v>
       </c>
-      <c r="D17" s="123" t="str">
+      <c r="D17" s="110" t="str">
         <f>FI_Process!F19</f>
         <v>Final electricity demand</v>
       </c>
-      <c r="E17" s="123" t="str">
+      <c r="E17" s="110" t="str">
         <f>FI_Comm!E12</f>
         <v>ELC_LV</v>
       </c>
-      <c r="F17" s="123" t="str">
+      <c r="F17" s="110" t="str">
         <f>FI_Comm!E13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123">
+      <c r="G17" s="110"/>
+      <c r="H17" s="110">
         <v>1</v>
       </c>
-      <c r="I17" s="123">
+      <c r="I17" s="110">
         <v>1</v>
       </c>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5303,15 +5336,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -5506,6 +5530,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{485776A6-5B40-46C5-9899-357C034833E4}">
   <ds:schemaRefs>
@@ -5518,14 +5551,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C2D764-5B27-4522-8FEB-F224FDBA4CB6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5542,4 +5567,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1D6FCCB-655D-4190-91C8-88E3630C153E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ELAND_01/VT_ELAND_ALL_V01.xlsx
+++ b/ELAND_01/VT_ELAND_ALL_V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="10" r:id="rId1"/>
@@ -572,7 +572,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0" shapeId="0">
+    <comment ref="D22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="198">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1175,6 +1175,36 @@
   </si>
   <si>
     <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>COM_FR</t>
+  </si>
+  <si>
+    <t>S1W1D1</t>
+  </si>
+  <si>
+    <t>S1W1D2</t>
+  </si>
+  <si>
+    <t>S1W2D1</t>
+  </si>
+  <si>
+    <t>S1W2D2</t>
+  </si>
+  <si>
+    <t>S2W1D1</t>
+  </si>
+  <si>
+    <t>S2W1D2</t>
+  </si>
+  <si>
+    <t>S2W2D1</t>
+  </si>
+  <si>
+    <t>S2W2D2</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
   </si>
 </sst>
 </file>
@@ -1877,13 +1907,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2114,9 +2145,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Normal 39 2 2" xfId="3"/>
     <cellStyle name="Normal 4" xfId="2"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -3527,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5079,10 +5113,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L17"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M13" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5101,23 +5135,23 @@
     <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="75"/>
       <c r="D4" s="76"/>
       <c r="E4" s="77"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="29"/>
       <c r="C5" s="88" t="s">
         <v>41</v>
@@ -5126,7 +5160,7 @@
       <c r="E5" s="89"/>
       <c r="F5" s="82"/>
     </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="29"/>
       <c r="C6" s="86" t="s">
         <v>2</v>
@@ -5134,12 +5168,14 @@
       <c r="D6" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="87" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="85">
         <v>2025</v>
       </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="B7" s="29"/>
       <c r="C7" s="90" t="s">
         <v>119</v>
@@ -5147,23 +5183,23 @@
       <c r="D7" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="29"/>
       <c r="C8" s="93" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="94"/>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="94"/>
+      <c r="F8" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="29"/>
       <c r="C9" s="80" t="str">
         <f>FI_Comm!E13</f>
@@ -5172,151 +5208,319 @@
       <c r="D9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="13"/>
+      <c r="F9" s="81">
         <f>100/GRID!H6</f>
         <v>113.63636363636364</v>
       </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="65" t="s">
+    </row>
+    <row r="10" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
+      <c r="C10" s="13" t="str">
+        <f>C9</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="124">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>$F$9*F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="29"/>
+      <c r="C11" s="13" t="str">
+        <f t="shared" ref="C11:C17" si="0">C10</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D11" s="13" t="str">
+        <f>D10</f>
+        <v>COM_FR</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="124">
+        <v>0.05</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:H17" si="1">$F$9*F11</f>
+        <v>5.6818181818181825</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29"/>
+      <c r="C12" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D12" s="13" t="str">
+        <f t="shared" ref="D12:D17" si="2">D11</f>
+        <v>COM_FR</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="124">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>11.363636363636365</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29"/>
+      <c r="C13" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D13" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>COM_FR</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="124">
+        <v>0.15</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>17.045454545454547</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="29"/>
+      <c r="C14" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D14" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>COM_FR</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="124">
+        <v>0.2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>22.72727272727273</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29"/>
+      <c r="C15" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D15" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>COM_FR</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="124">
+        <v>0.3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>34.090909090909093</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29"/>
+      <c r="C16" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D16" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>COM_FR</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="124">
+        <v>0.05</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>5.6818181818181825</v>
+      </c>
+      <c r="I16" s="125"/>
+    </row>
+    <row r="17" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="29"/>
+      <c r="C17" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="D17" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v>COM_FR</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="124">
+        <v>0.15</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>17.045454545454547</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="20" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="56"/>
-    </row>
-    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="66" t="s">
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G22" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I22" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K22" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="67" t="s">
+      <c r="L22" s="67" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="68" t="s">
+    <row r="23" spans="2:12" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="C23" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G23" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H23" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I23" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J23" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K23" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L23" s="69" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="78" t="s">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H24" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="79" t="s">
+      <c r="L24" s="79" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="110" t="str">
+    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="110" t="str">
         <f>FI_Process!E19</f>
         <v>DMD_FIN_ELC</v>
       </c>
-      <c r="D17" s="110" t="str">
+      <c r="D25" s="110" t="str">
         <f>FI_Process!F19</f>
         <v>Final electricity demand</v>
       </c>
-      <c r="E17" s="110" t="str">
+      <c r="E25" s="110" t="str">
         <f>FI_Comm!E12</f>
         <v>ELC_LV</v>
       </c>
-      <c r="F17" s="110" t="str">
+      <c r="F25" s="110" t="str">
         <f>FI_Comm!E13</f>
         <v>ELC_FIN</v>
       </c>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110">
+      <c r="G25" s="110"/>
+      <c r="H25" s="110">
         <v>1</v>
       </c>
-      <c r="I17" s="110">
+      <c r="I25" s="110">
         <v>1</v>
       </c>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
